--- a/Data_Results/Chapter 1- Models, experiments, and results on Shands data.xlsx
+++ b/Data_Results/Chapter 1- Models, experiments, and results on Shands data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1576,11 +1576,11 @@
   <dimension ref="C5:R50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="D4" sqref="D4"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomRight" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3702,7 +3702,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
